--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="DK entries" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="DK entries" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +132,813 @@
   </si>
   <si>
     <t>Daily Total</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Refund for Cancelled Contest</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Entry Fee</t>
+  </si>
+  <si>
+    <t>Contest Entry Fee</t>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:37 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:29 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:27 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:26 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:25 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:24 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:23 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:22 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:21 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:19 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:02:57 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:02:49 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:02:43 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:02:37 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:02:03 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:01:53 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:01:43 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:00:23 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:00:12 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:00:04 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:59:58 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:59:37 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:59:27 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:59:09 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:58:10 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:57:59 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:56:25 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:56:19 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:56:14 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:56:10 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:56:03 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:55:29 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:55:27 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:55:23 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:55:18 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:55:15 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:55:07 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>10:44:09 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>10:26:47 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>10:26:26 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>10:05:59 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>9:14:10 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>9:13:41 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>8:24:00 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>8:09:51 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:51:31 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:51:20 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:48:06 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:46:35 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:46:30 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:45:58 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>3:49:41 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:38:50 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:38:31 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:38:24 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>12:24:42 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>12:18:37 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/24/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>11:43:16 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/24/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>11:41:23 PM</t>
+    </r>
+  </si>
+  <si>
+    <t>Winnings</t>
+  </si>
+  <si>
+    <t>Prize Credited to Account</t>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:35:58 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:23:39 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:23:36 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:22:36 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>2:16:54 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/25/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1:54:35 AM</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -139,7 +948,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +963,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,13 +1009,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,22 +1310,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -502,8 +1343,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>41962</v>
       </c>
@@ -523,8 +1367,16 @@
       <c r="F2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <f t="shared" ref="G2:G8" si="0">E2-$D$2</f>
+        <v>-103</v>
+      </c>
+      <c r="H2">
+        <f>E2/$D$2</f>
+        <v>0.89529008712271396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>41963</v>
       </c>
@@ -538,15 +1390,23 @@
         <f>E2</f>
         <v>880.67</v>
       </c>
-      <c r="E3">
-        <f>D3-B3+F3+C3</f>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E10" si="1">D3-B3+F3+C3</f>
         <v>843.67</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>-140</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H8" si="2">E3/$D$2</f>
+        <v>0.85767584657456264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>41964</v>
       </c>
@@ -556,30 +1416,162 @@
       <c r="C4">
         <v>235.8</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">E3</f>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D10" si="3">E3</f>
         <v>843.67</v>
       </c>
-      <c r="E4">
-        <f>D4-B4+F4+C4</f>
+      <c r="E4" s="7">
+        <f t="shared" si="1"/>
         <v>953.47</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-30.199999999999932</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.96929864690394141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>41965</v>
       </c>
-      <c r="D5">
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>7.2</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="3"/>
+        <v>953.47</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>868.67000000000007</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>953.47</v>
-      </c>
-      <c r="E5">
-        <f>D5-B5+F5+C5</f>
-        <v>953.47</v>
-      </c>
+        <v>-114.99999999999989</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.88309087397196229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>149.4</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="3"/>
+        <v>868.67000000000007</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>922.07</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-61.599999999999909</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.93737737249280761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B7">
+        <v>111</v>
+      </c>
+      <c r="C7" s="7">
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="3"/>
+        <v>922.07</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>885.07</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-98.599999999999909</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.89976313194465629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B8">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>13.8</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="3"/>
+        <v>885.07</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>813.87</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>-169.79999999999995</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82738113391686241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>41969</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="3"/>
+        <v>813.87</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>813.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,19 +1580,2501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="54">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54">
+      <c r="A2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54">
+      <c r="A3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54">
+      <c r="A4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54">
+      <c r="A6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="A7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54">
+      <c r="A8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54">
+      <c r="A9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54">
+      <c r="A10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="54">
+      <c r="A11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="54">
+      <c r="A12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="54">
+      <c r="A13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="54">
+      <c r="A14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54">
+      <c r="A15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM(C1:C15)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5">
+      <c r="A16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM(C16:C96)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5">
+      <c r="A17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5">
+      <c r="A18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5">
+      <c r="A19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="11">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="40.5">
+      <c r="A20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="40.5">
+      <c r="A21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5">
+      <c r="A22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5">
+      <c r="A23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="40.5">
+      <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="11">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="40.5">
+      <c r="A25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="40.5">
+      <c r="A26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="54">
+      <c r="A27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="54">
+      <c r="A28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="54">
+      <c r="A29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="54">
+      <c r="A30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="54">
+      <c r="A31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="40.5">
+      <c r="A32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="40.5">
+      <c r="A33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="40.5">
+      <c r="A34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="40.5">
+      <c r="A35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="40.5">
+      <c r="A36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="40.5">
+      <c r="A37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="40.5">
+      <c r="A38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="40.5">
+      <c r="A39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="40.5">
+      <c r="A40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="40.5">
+      <c r="A41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="40.5">
+      <c r="A42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="40.5">
+      <c r="A43" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="40.5">
+      <c r="A44" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="40.5">
+      <c r="A45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="40.5">
+      <c r="A46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="40.5">
+      <c r="A47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="40.5">
+      <c r="A48" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="40.5">
+      <c r="A49" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="40.5">
+      <c r="A50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="40.5">
+      <c r="A51" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="40.5">
+      <c r="A52" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="40.5">
+      <c r="A53" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="40.5">
+      <c r="A54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="40.5">
+      <c r="A55" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="40.5">
+      <c r="A56" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="40.5">
+      <c r="A57" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="40.5">
+      <c r="A58" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="40.5">
+      <c r="A59" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="40.5">
+      <c r="A60" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="40.5">
+      <c r="A61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="40.5">
+      <c r="A62" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="40.5">
+      <c r="A63" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="40.5">
+      <c r="A64" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="40.5">
+      <c r="A65" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="40.5">
+      <c r="A66" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="11">
+        <v>1</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="40.5">
+      <c r="A67" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="11">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="40.5">
+      <c r="A68" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="11">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="40.5">
+      <c r="A69" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="11">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="40.5">
+      <c r="A70" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="40.5">
+      <c r="A71" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="40.5">
+      <c r="A72" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="11">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="40.5">
+      <c r="A73" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="11">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="40.5">
+      <c r="A74" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="40.5">
+      <c r="A75" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="11">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="40.5">
+      <c r="A76" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="11">
+        <v>1</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="40.5">
+      <c r="A77" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="40.5">
+      <c r="A78" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="40.5">
+      <c r="A79" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="40.5">
+      <c r="A80" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="11">
+        <v>1</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="40.5">
+      <c r="A81" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="40.5">
+      <c r="A82" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="40.5">
+      <c r="A83" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="40.5">
+      <c r="A84" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="40.5">
+      <c r="A85" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="40.5">
+      <c r="A86" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="40.5">
+      <c r="A87" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="11">
+        <v>1</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="40.5">
+      <c r="A88" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="11">
+        <v>1</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="40.5">
+      <c r="A89" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="11">
+        <v>1</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="40.5">
+      <c r="A90" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="11">
+        <v>1</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="40.5">
+      <c r="A91" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="11">
+        <v>1</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="40.5">
+      <c r="A92" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="11">
+        <v>1</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="40.5">
+      <c r="A93" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="11">
+        <v>1</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="40.5">
+      <c r="A94" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="11">
+        <v>1</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="40.5">
+      <c r="A95" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="11">
+        <v>1</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="40.5">
+      <c r="A96" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="11">
+        <v>1</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="9">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(C:C)</f>
+        <v>68.999999999999986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60">
+      <c r="A2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60">
+      <c r="A3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60">
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60">
+      <c r="A6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60">
+      <c r="A12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60">
+      <c r="A13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60">
+      <c r="A14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60">
+      <c r="A15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60">
+      <c r="A16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60">
+      <c r="A19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60">
+      <c r="A20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60">
+      <c r="A22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60">
+      <c r="A23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60">
+      <c r="A24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60">
+      <c r="A25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60">
+      <c r="A26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="50.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -638,7 +4112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -673,7 +4147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -708,7 +4182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -743,7 +4217,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -778,7 +4252,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -813,7 +4287,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -848,7 +4322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -883,7 +4357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -918,7 +4392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -953,7 +4427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -988,7 +4462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +4497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1058,7 +4532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +4567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1128,7 +4602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1163,7 +4637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +4672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +4707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1268,7 +4742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +4777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +4812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +4847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1408,7 +4882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +4917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +4956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1518,7 +4992,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +5028,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +5063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1624,7 +5098,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +5133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +5168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +5203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1764,7 +5238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1799,7 +5273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1834,7 +5308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +5343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +5413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1974,7 +5448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2009,7 +5483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2044,7 +5518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2079,7 +5553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2114,7 +5588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2149,7 +5623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2184,7 +5658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2219,7 +5693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2254,7 +5728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2289,7 +5763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2324,7 +5798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2359,7 +5833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2394,7 +5868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2429,7 +5903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -2464,7 +5938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2499,7 +5973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2534,7 +6008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2569,7 +6043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +6078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2639,7 +6113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2674,7 +6148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2709,7 +6183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +6218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +6253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2814,7 +6288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -2849,7 +6323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -2884,7 +6358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -2919,7 +6393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -2954,7 +6428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -2989,7 +6463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -3024,7 +6498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -3059,7 +6533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -3094,7 +6568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -3129,7 +6603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +6638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -3199,7 +6673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -3234,7 +6708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -3269,7 +6743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -3304,7 +6778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -3339,7 +6813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -3374,7 +6848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -3409,7 +6883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -3444,7 +6918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -3479,7 +6953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3514,7 +6988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -3549,7 +7023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -3584,7 +7058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -3623,252 +7097,252 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12">
       <c r="C87" s="3"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12">
       <c r="C88" s="3"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12">
       <c r="C89" s="3"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12">
       <c r="C90" s="3"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12">
       <c r="C91" s="3"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12">
       <c r="C92" s="3"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12">
       <c r="C93" s="3"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12">
       <c r="C94" s="3"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12">
       <c r="C95" s="3"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12">
       <c r="C96" s="3"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:10">
       <c r="C97" s="3"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:10">
       <c r="C98" s="3"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:10">
       <c r="C99" s="3"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:10">
       <c r="C100" s="3"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:10">
       <c r="C101" s="3"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:10">
       <c r="C102" s="3"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:10">
       <c r="C103" s="3"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:10">
       <c r="C104" s="3"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:10">
       <c r="C105" s="3"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:10">
       <c r="C106" s="3"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:10">
       <c r="C107" s="3"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:10">
       <c r="C108" s="3"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:10">
       <c r="C109" s="3"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:10">
       <c r="C110" s="3"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:10">
       <c r="C111" s="3"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:10">
       <c r="C112" s="3"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="3:10">
       <c r="C113" s="3"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:10">
       <c r="C114" s="3"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:10">
       <c r="C115" s="3"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:10">
       <c r="C116" s="3"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="3:10">
       <c r="C117" s="3"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="3:10">
       <c r="C118" s="3"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="3:10">
       <c r="C119" s="3"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:10">
       <c r="C120" s="3"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="3:10">
       <c r="C121" s="3"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:10">
       <c r="C122" s="3"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>

--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -863,81 +863,219 @@
     </r>
   </si>
   <si>
-    <t>Winnings</t>
-  </si>
-  <si>
-    <t>Prize Credited to Account</t>
-  </si>
-  <si>
-    <r>
-      <t>11/25/2014 </t>
+    <r>
+      <t>11/26/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>2:35:58 AM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/25/2014 </t>
+      <t>7:03:57 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>2:23:39 AM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/25/2014 </t>
+      <t>7:03:56 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>2:23:36 AM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/25/2014 </t>
+      <t>7:03:55 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>2:22:36 AM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/25/2014 </t>
+      <t>7:03:54 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>2:16:54 AM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/25/2014 </t>
+      <t>7:03:53 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>1:54:35 AM</t>
+      <t>7:03:52 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:51 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:50 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:03:49 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7:02:27 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6:59:37 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6:59:18 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6:58:30 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6:57:31 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6:56:38 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6:56:18 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6:56:17 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/26/2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6:55:46 PM</t>
     </r>
   </si>
 </sst>
@@ -965,21 +1103,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Inherit"/>
     </font>
   </fonts>
@@ -1313,7 +1451,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1368,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G8" si="0">E2-$D$2</f>
+        <f t="shared" ref="G2:G9" si="0">E2-$D$2</f>
         <v>-103</v>
       </c>
       <c r="H2">
@@ -1391,7 +1529,7 @@
         <v>880.67</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E10" si="1">D3-B3+F3+C3</f>
+        <f t="shared" ref="E3:E9" si="1">D3-B3+F3+C3</f>
         <v>843.67</v>
       </c>
       <c r="F3">
@@ -1402,7 +1540,7 @@
         <v>-140</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H8" si="2">E3/$D$2</f>
+        <f t="shared" ref="H3:H9" si="2">E3/$D$2</f>
         <v>0.85767584657456264</v>
       </c>
     </row>
@@ -1417,7 +1555,7 @@
         <v>235.8</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D10" si="3">E3</f>
+        <f t="shared" ref="D4:D9" si="3">E3</f>
         <v>843.67</v>
       </c>
       <c r="E4" s="7">
@@ -1560,13 +1698,30 @@
       <c r="A9" s="1">
         <v>41969</v>
       </c>
+      <c r="B9">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>110.7</v>
+      </c>
       <c r="D9" s="7">
         <f t="shared" si="3"/>
         <v>813.87</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>813.87</v>
+        <v>845.57</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>-138.09999999999991</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.859607388656765</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1589,302 +1744,302 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="54">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="11">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="9">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="4">
@@ -1893,22 +2048,22 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="4">
@@ -1917,1602 +2072,1602 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="40.5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9">
         <v>5</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="9">
         <v>5</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9">
         <v>5</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="40.5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="9">
         <v>3</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="9">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="D21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="40.5">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="40.5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="9">
         <v>3</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="D23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="40.5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="9">
         <v>5</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="D24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="40.5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9">
         <v>3</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="D25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="40.5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9">
         <v>3</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="D26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="54">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="54">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="11">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="54">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="11">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="54">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="11">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="11">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="40.5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="B32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="40.5">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="B33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="40.5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="11">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="B34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="40.5">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="11">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="B35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="11">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="10" t="s">
+      <c r="B36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="40.5">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="11">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="B37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="40.5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="11">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="B38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="40.5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="11">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="10" t="s">
+      <c r="B39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="40.5">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="11">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="10" t="s">
+      <c r="B40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="40.5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="11">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="B41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="40.5">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="11">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="B42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="40.5">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="11">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="40.5">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="11">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="B44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="40.5">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="B45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="40.5">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="B46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="40.5">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="11">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="B47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="40.5">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="11">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="10" t="s">
+      <c r="B48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="40.5">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="11">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="10" t="s">
+      <c r="B49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="40.5">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="11">
-        <v>1</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="B50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="40.5">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="B51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="40.5">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="11">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="10" t="s">
+      <c r="B52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="40.5">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="11">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="10" t="s">
+      <c r="B53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="40.5">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="11">
-        <v>1</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="10" t="s">
+      <c r="B54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="40.5">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="11">
-        <v>1</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="B55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="40.5">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="11">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="10" t="s">
+      <c r="B56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="40.5">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="11">
-        <v>1</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="B57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="40.5">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="11">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="10" t="s">
+      <c r="B58" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="40.5">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="11">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="10" t="s">
+      <c r="B59" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="40.5">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="11">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="B60" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="40.5">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="11">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="10" t="s">
+      <c r="B61" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="40.5">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="11">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="B62" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="40.5">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="11">
-        <v>1</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="B63" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="40.5">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="11">
-        <v>1</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="10" t="s">
+      <c r="B64" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="40.5">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="11">
-        <v>1</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="B65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="40.5">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="11">
-        <v>1</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="10" t="s">
+      <c r="B66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="40.5">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="11">
-        <v>1</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="B67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="40.5">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="11">
-        <v>1</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="10" t="s">
+      <c r="B68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="40.5">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="11">
-        <v>1</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="10" t="s">
+      <c r="B69" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="9">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="40.5">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="10" t="s">
+      <c r="B70" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="9">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="40.5">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="B71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="9">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="40.5">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="11">
-        <v>1</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="10" t="s">
+      <c r="B72" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="9">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="40.5">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="11">
-        <v>1</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="10" t="s">
+      <c r="B73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="9">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="40.5">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="11">
-        <v>1</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="10" t="s">
+      <c r="B74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="9">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="40.5">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="11">
-        <v>1</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="10" t="s">
+      <c r="B75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="40.5">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="11">
-        <v>1</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="10" t="s">
+      <c r="B76" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="40.5">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="11">
-        <v>1</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77" s="10" t="s">
+      <c r="B77" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="9">
+        <v>1</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="40.5">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="11">
-        <v>1</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="B78" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="40.5">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="11">
-        <v>1</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" s="10" t="s">
+      <c r="B79" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="9">
+        <v>1</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="40.5">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="11">
-        <v>1</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="10" t="s">
+      <c r="B80" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="9">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="40.5">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="11">
-        <v>1</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" s="10" t="s">
+      <c r="B81" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="40.5">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C82" s="11">
-        <v>1</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="10" t="s">
+      <c r="B82" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="9">
+        <v>1</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="40.5">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="11">
-        <v>1</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F83" s="10" t="s">
+      <c r="B83" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="9">
+        <v>1</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="40.5">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C84" s="11">
-        <v>1</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="10" t="s">
+      <c r="B84" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="9">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="40.5">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="11">
-        <v>1</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85" s="10" t="s">
+      <c r="B85" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="9">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="40.5">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C86" s="11">
-        <v>1</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F86" s="10" t="s">
+      <c r="B86" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="9">
+        <v>1</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="40.5">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="11">
-        <v>1</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" s="10" t="s">
+      <c r="B87" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="9">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="40.5">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="11">
-        <v>1</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F88" s="10" t="s">
+      <c r="B88" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="9">
+        <v>1</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="40.5">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="11">
-        <v>1</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="10" t="s">
+      <c r="B89" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="9">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="40.5">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C90" s="11">
-        <v>1</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" s="10" t="s">
+      <c r="B90" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="9">
+        <v>1</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="40.5">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" s="11">
-        <v>1</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="10" t="s">
+      <c r="B91" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="9">
+        <v>1</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="40.5">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="11">
-        <v>1</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F92" s="10" t="s">
+      <c r="B92" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="40.5">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="11">
-        <v>1</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F93" s="10" t="s">
+      <c r="B93" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="9">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="40.5">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="11">
-        <v>1</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F94" s="10" t="s">
+      <c r="B94" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="9">
+        <v>1</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="40.5">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" s="11">
-        <v>1</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F95" s="10" t="s">
+      <c r="B95" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="9">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="40.5">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C96" s="11">
-        <v>1</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F96" s="10" t="s">
+      <c r="B96" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="9">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3523,535 +3678,1644 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="60">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="51">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="51">
+      <c r="A2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="51">
+      <c r="A3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51">
+      <c r="A4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51">
+      <c r="A5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51">
+      <c r="A6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51">
+      <c r="A7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51">
+      <c r="A8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51">
+      <c r="A9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51">
+      <c r="A10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51">
+      <c r="A11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="9">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(C:C)</f>
-        <v>68.999999999999986</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60">
-      <c r="A2" s="8" t="s">
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51">
+      <c r="A12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60">
-      <c r="A3" s="8" t="s">
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51">
+      <c r="A13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60">
-      <c r="A5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60">
-      <c r="A6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60">
-      <c r="A7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60">
-      <c r="A9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60">
-      <c r="A10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60">
-      <c r="A11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60">
-      <c r="A12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51">
+      <c r="A14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51">
+      <c r="A15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="51">
+      <c r="A16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51">
+      <c r="A17" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="60">
-      <c r="A15" s="8" t="s">
+      <c r="B17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="51">
+      <c r="A18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60">
-      <c r="A16" s="8" t="s">
+      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51">
+      <c r="A19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60">
-      <c r="A17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60">
-      <c r="A18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60">
-      <c r="A19" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60">
-      <c r="A20" s="8" t="s">
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51">
+      <c r="A20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51">
+      <c r="A21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51">
+      <c r="A22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51">
+      <c r="A23" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="9">
-        <v>18</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="60">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51">
+      <c r="A24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="51">
+      <c r="A25" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="60">
-      <c r="A24" s="8" t="s">
+      <c r="B25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="51">
+      <c r="A26" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="60">
-      <c r="A25" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60">
-      <c r="A26" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="51">
+      <c r="A27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="51">
+      <c r="A28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="11">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="51">
+      <c r="A29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="11">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51">
+      <c r="A30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="11">
+        <v>5</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="4">
+        <f>SUM(C1:C30)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="38.25">
+      <c r="A31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="11">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="4">
+        <f>SUM(C31:C81)</f>
+        <v>125</v>
+      </c>
+      <c r="H31">
+        <f>125-42</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="38.25">
+      <c r="A32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="11">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="38.25">
+      <c r="A33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="11">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="38.25">
+      <c r="A34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="38.25">
+      <c r="A35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="38.25">
+      <c r="A36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="38.25">
+      <c r="A37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="38.25">
+      <c r="A38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="38.25">
+      <c r="A39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="11">
+        <v>10</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="38.25">
+      <c r="A40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="11">
+        <v>20</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="38.25">
+      <c r="A41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="11">
+        <v>3</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="38.25">
+      <c r="A42" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="38.25">
+      <c r="A43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="11">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="38.25">
+      <c r="A44" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="11">
+        <v>10</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="38.25">
+      <c r="A45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="38.25">
+      <c r="A46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="38.25">
+      <c r="A47" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="38.25">
+      <c r="A48" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="38.25">
+      <c r="A49" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="38.25">
+      <c r="A50" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="38.25">
+      <c r="A51" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="38.25">
+      <c r="A52" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="38.25">
+      <c r="A53" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="38.25">
+      <c r="A54" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="38.25">
+      <c r="A55" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="38.25">
+      <c r="A56" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="38.25">
+      <c r="A57" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="38.25">
+      <c r="A58" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="38.25">
+      <c r="A59" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="38.25">
+      <c r="A60" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="38.25">
+      <c r="A61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="38.25">
+      <c r="A62" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="38.25">
+      <c r="A63" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="38.25">
+      <c r="A64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="38.25">
+      <c r="A65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="38.25">
+      <c r="A66" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="11">
+        <v>1</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="38.25">
+      <c r="A67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="11">
+        <v>5</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="38.25">
+      <c r="A68" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="11">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="38.25">
+      <c r="A69" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="11">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="38.25">
+      <c r="A70" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="38.25">
+      <c r="A71" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="38.25">
+      <c r="A72" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="11">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="38.25">
+      <c r="A73" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="11">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="38.25">
+      <c r="A74" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="38.25">
+      <c r="A75" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="11">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="38.25">
+      <c r="A76" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="11">
+        <v>1</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="38.25">
+      <c r="A77" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="38.25">
+      <c r="A78" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="38.25">
+      <c r="A79" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="11">
+        <v>3</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="38.25">
+      <c r="A80" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="11">
+        <v>3</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="38.25">
+      <c r="A81" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="11">
+        <v>5</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>39</v>
       </c>
     </row>

--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1506,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G9" si="0">E2-$D$2</f>
+        <f t="shared" ref="G2:G10" si="0">E2-$D$2</f>
         <v>-103</v>
       </c>
       <c r="H2">
@@ -1529,7 +1529,7 @@
         <v>880.67</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E9" si="1">D3-B3+F3+C3</f>
+        <f t="shared" ref="E3:E10" si="1">D3-B3+F3+C3</f>
         <v>843.67</v>
       </c>
       <c r="F3">
@@ -1540,7 +1540,7 @@
         <v>-140</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H9" si="2">E3/$D$2</f>
+        <f t="shared" ref="H3:H10" si="2">E3/$D$2</f>
         <v>0.85767584657456264</v>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
         <v>235.8</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D9" si="3">E3</f>
+        <f t="shared" ref="D4:D10" si="3">E3</f>
         <v>843.67</v>
       </c>
       <c r="E4" s="7">
@@ -1725,8 +1725,26 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="1">
+        <v>41971</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="3"/>
+        <v>845.57</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>845.57</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>-138.09999999999991</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.859607388656765</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
     <sheet name="DK entries" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr fullCalcOnLoad="1" calcCompleted="0" calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Daily Total</t>
-  </si>
-  <si>
-    <t>Profit</t>
   </si>
   <si>
     <t>Credit</t>
@@ -863,219 +860,225 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>11/26/2014 </t>
+    <t>Daily PnL</t>
+  </si>
+  <si>
+    <t>Overall PnL</t>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:57 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:06:06 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:56 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:06:05 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:55 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:06:04 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:54 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:06:03 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:53 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:06:02 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:52 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:06:01 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:51 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:05:59 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:50 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:05:58 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:03:49 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>7:05:57 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>7:02:27 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>6:31:13 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>6:59:37 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>6:29:01 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>6:59:18 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>6:26:28 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>6:58:30 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>10:14:48 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>6:57:31 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>10:14:20 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>6:56:38 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>10:14:05 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>6:56:18 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>10:13:45 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>6:56:17 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/26/2014 </t>
+      <t>10:13:03 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11/29/2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>6:55:46 PM</t>
+      <t>10:12:52 AM</t>
     </r>
   </si>
 </sst>
@@ -1086,7 +1089,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,15 +1112,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Inherit"/>
     </font>
   </fonts>
@@ -1147,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1160,12 +1154,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1448,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1460,9 +1448,10 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.06640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1482,10 +1471,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>41962</v>
       </c>
@@ -1505,16 +1497,20 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G10" si="0">E2-$D$2</f>
+      <c r="G2" s="7">
+        <f>E2-D2</f>
         <v>-103</v>
       </c>
       <c r="H2">
+        <f>E2-$D$2</f>
+        <v>-103</v>
+      </c>
+      <c r="I2">
         <f>E2/$D$2</f>
-        <v>0.89529008712271396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.895290087122714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>41963</v>
       </c>
@@ -1529,22 +1525,26 @@
         <v>880.67</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E10" si="1">D3-B3+F3+C3</f>
+        <f>D3-B3+F3+C3</f>
         <v>843.67</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
+      <c r="G3" s="7">
+        <f>E3-D3</f>
+        <v>-37</v>
+      </c>
+      <c r="H3">
+        <f>E3-$D$2</f>
         <v>-140</v>
       </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H10" si="2">E3/$D$2</f>
-        <v>0.85767584657456264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="7">
+        <f>E3/$D$2</f>
+        <v>0.857675846574563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>41964</v>
       </c>
@@ -1555,26 +1555,30 @@
         <v>235.8</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D10" si="3">E3</f>
+        <f>E3</f>
         <v>843.67</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" si="1"/>
+        <f>D4-B4+F4+C4</f>
         <v>953.47</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>-30.199999999999932</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="2"/>
-        <v>0.96929864690394141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="7">
+        <f>E4-D4</f>
+        <v>109.8</v>
+      </c>
+      <c r="H4">
+        <f>E4-$D$2</f>
+        <v>-30.1999999999999</v>
+      </c>
+      <c r="I4" s="7">
+        <f>E4/$D$2</f>
+        <v>0.969298646903941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>41965</v>
       </c>
@@ -1585,26 +1589,30 @@
         <v>7.2</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="3"/>
+        <f>E4</f>
         <v>953.47</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="1"/>
-        <v>868.67000000000007</v>
+        <f>D5-B5+F5+C5</f>
+        <v>868.67</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-114.99999999999989</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="2"/>
-        <v>0.88309087397196229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="7">
+        <f>E5-D5</f>
+        <v>-84.8</v>
+      </c>
+      <c r="H5">
+        <f>E5-$D$2</f>
+        <v>-115</v>
+      </c>
+      <c r="I5" s="7">
+        <f>E5/$D$2</f>
+        <v>0.883090873971962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>41966</v>
       </c>
@@ -1615,26 +1623,30 @@
         <v>149.4</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="3"/>
-        <v>868.67000000000007</v>
+        <f>E5</f>
+        <v>868.67</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="1"/>
+        <f>D6-B6+F6+C6</f>
         <v>922.07</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-61.599999999999909</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="2"/>
-        <v>0.93737737249280761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="7">
+        <f>E6-D6</f>
+        <v>53.4</v>
+      </c>
+      <c r="H6">
+        <f>E6-$D$2</f>
+        <v>-61.5999999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <f>E6/$D$2</f>
+        <v>0.937377372492808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>41967</v>
       </c>
@@ -1645,26 +1657,30 @@
         <v>69</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="3"/>
+        <f>E6</f>
         <v>922.07</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="1"/>
+        <f>D7-B7+F7+C7</f>
         <v>885.07</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-98.599999999999909</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.89976313194465629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="7">
+        <f>E7-D7</f>
+        <v>-37</v>
+      </c>
+      <c r="H7">
+        <f>E7-$D$2</f>
+        <v>-98.5999999999999</v>
+      </c>
+      <c r="I7" s="7">
+        <f>E7/$D$2</f>
+        <v>0.899763131944656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>41968</v>
       </c>
@@ -1675,26 +1691,30 @@
         <v>13.8</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="3"/>
+        <f>E7</f>
         <v>885.07</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="1"/>
+        <f>D8-B8+F8+C8</f>
         <v>813.87</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
-        <v>-169.79999999999995</v>
+        <f>E8-D8</f>
+        <v>-71.2</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.82738113391686241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f>E8-$D$2</f>
+        <v>-169.8</v>
+      </c>
+      <c r="I8" s="7">
+        <f>E8/$D$2</f>
+        <v>0.827381133916862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>41969</v>
       </c>
@@ -1705,45 +1725,95 @@
         <v>110.7</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="3"/>
+        <f>E8</f>
         <v>813.87</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="1"/>
+        <f>D9-B9+F9+C9</f>
         <v>845.57</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>-138.09999999999991</v>
+        <f>E9-D9</f>
+        <v>31.7</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="2"/>
+        <f>E9-$D$2</f>
+        <v>-138.1</v>
+      </c>
+      <c r="I9" s="7">
+        <f>E9/$D$2</f>
         <v>0.859607388656765</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>41971</v>
       </c>
+      <c r="B10">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" s="7">
-        <f t="shared" si="3"/>
+        <f>E9</f>
         <v>845.57</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>845.57</v>
-      </c>
-      <c r="F10" s="7"/>
+        <f>D10-B10+F10+C10</f>
+        <v>762.57</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>-138.09999999999991</v>
+        <f>E10-D10</f>
+        <v>-83</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.859607388656765</v>
+        <f>E10-$D$2</f>
+        <v>-221.1</v>
+      </c>
+      <c r="I10" s="7">
+        <f>E10/$D$2</f>
+        <v>0.775229497697399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>41972</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>178.2</v>
+      </c>
+      <c r="D11" s="7">
+        <f>E10</f>
+        <v>762.57</v>
+      </c>
+      <c r="E11" s="7">
+        <f>D11-B11+F11+C11</f>
+        <v>845.77</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7">
+        <f>E11-D11</f>
+        <v>83.1999999999999</v>
+      </c>
+      <c r="H11" s="7">
+        <f>E11-$D$2</f>
+        <v>-137.9</v>
+      </c>
+      <c r="I11" s="7">
+        <f>E11/$D$2</f>
+        <v>0.859810708875944</v>
       </c>
     </row>
   </sheetData>
@@ -1763,302 +1833,302 @@
   <sheetData>
     <row r="1" spans="1:7" ht="54">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="9">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54">
       <c r="A4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54">
       <c r="A5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54">
       <c r="A6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54">
       <c r="A11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54">
       <c r="A12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54">
       <c r="A13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54">
       <c r="A14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54">
       <c r="A15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="4">
         <f>SUM(C1:C15)</f>
@@ -2067,22 +2137,22 @@
     </row>
     <row r="16" spans="1:7" ht="40.5">
       <c r="A16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9">
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(C16:C96)</f>
@@ -2091,1602 +2161,1602 @@
     </row>
     <row r="17" spans="1:6" ht="40.5">
       <c r="A17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9">
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5">
       <c r="A18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9">
         <v>5</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5">
       <c r="A19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9">
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="40.5">
       <c r="A20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.5">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9">
         <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="40.5">
       <c r="A22" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9">
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="40.5">
       <c r="A23" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="9">
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="40.5">
       <c r="A24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="9">
         <v>5</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="40.5">
       <c r="A25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9">
         <v>3</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="40.5">
       <c r="A26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="9">
         <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="54">
       <c r="A27" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="54">
       <c r="A28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="54">
       <c r="A29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="54">
       <c r="A30" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54">
       <c r="A31" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="40.5">
       <c r="A32" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="40.5">
       <c r="A33" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="40.5">
       <c r="A34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="9">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="40.5">
       <c r="A35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9">
         <v>1</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5">
       <c r="A36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="9">
         <v>1</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="40.5">
       <c r="A37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="40.5">
       <c r="A38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="40.5">
       <c r="A39" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="40.5">
       <c r="A40" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="40.5">
       <c r="A41" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="40.5">
       <c r="A42" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="40.5">
       <c r="A43" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="9">
         <v>1</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="40.5">
       <c r="A44" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="9">
         <v>1</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="40.5">
       <c r="A45" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="9">
         <v>1</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="40.5">
       <c r="A46" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="9">
         <v>1</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="40.5">
       <c r="A47" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="9">
         <v>1</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="40.5">
       <c r="A48" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="9">
         <v>1</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="40.5">
       <c r="A49" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="9">
         <v>1</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="40.5">
       <c r="A50" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="9">
         <v>1</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="40.5">
       <c r="A51" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="9">
         <v>1</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="40.5">
       <c r="A52" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="9">
         <v>1</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="40.5">
       <c r="A53" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="9">
         <v>1</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="40.5">
       <c r="A54" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="9">
         <v>1</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="40.5">
       <c r="A55" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9">
         <v>1</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="40.5">
       <c r="A56" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="9">
         <v>1</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="40.5">
       <c r="A57" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="9">
         <v>1</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="40.5">
       <c r="A58" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="9">
         <v>1</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="40.5">
       <c r="A59" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="9">
         <v>1</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="40.5">
       <c r="A60" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="9">
         <v>1</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="40.5">
       <c r="A61" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="9">
         <v>1</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="40.5">
       <c r="A62" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" s="9">
         <v>1</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="40.5">
       <c r="A63" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="9">
         <v>1</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="40.5">
       <c r="A64" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="9">
         <v>1</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="40.5">
       <c r="A65" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="9">
         <v>1</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="40.5">
       <c r="A66" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="9">
         <v>1</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="40.5">
       <c r="A67" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="9">
         <v>1</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="40.5">
       <c r="A68" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="9">
         <v>1</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="40.5">
       <c r="A69" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="9">
         <v>1</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="40.5">
       <c r="A70" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="9">
         <v>1</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="40.5">
       <c r="A71" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="9">
         <v>1</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="A72" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="9">
         <v>1</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="40.5">
       <c r="A73" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" s="9">
         <v>1</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="A74" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="9">
         <v>1</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="40.5">
       <c r="A75" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="9">
         <v>1</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="40.5">
       <c r="A76" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="9">
         <v>1</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="40.5">
       <c r="A77" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="9">
         <v>1</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="40.5">
       <c r="A78" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C78" s="9">
         <v>1</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="40.5">
       <c r="A79" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79" s="9">
         <v>1</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="40.5">
       <c r="A80" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80" s="9">
         <v>1</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="40.5">
       <c r="A81" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="9">
         <v>1</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="40.5">
       <c r="A82" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="9">
         <v>1</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="40.5">
       <c r="A83" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C83" s="9">
         <v>1</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="40.5">
       <c r="A84" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C84" s="9">
         <v>1</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="40.5">
       <c r="A85" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="40.5">
       <c r="A86" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86" s="9">
         <v>1</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="40.5">
       <c r="A87" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" s="9">
         <v>1</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="40.5">
       <c r="A88" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C88" s="9">
         <v>1</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="40.5">
       <c r="A89" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" s="9">
         <v>1</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="40.5">
       <c r="A90" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C90" s="9">
         <v>1</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="40.5">
       <c r="A91" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C91" s="9">
         <v>1</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="40.5">
       <c r="A92" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C92" s="9">
         <v>1</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="40.5">
       <c r="A93" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C93" s="9">
         <v>1</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="40.5">
       <c r="A94" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C94" s="9">
         <v>1</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="40.5">
       <c r="A95" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C95" s="9">
         <v>1</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="40.5">
       <c r="A96" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C96" s="9">
         <v>1</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3696,1645 +3766,1726 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="51">
-      <c r="A1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="11">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:7" ht="54">
+      <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="9">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="51">
-      <c r="A2" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(C1:C25)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54">
+      <c r="A2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="51">
-      <c r="A3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(C26:C85)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54">
+      <c r="A3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51">
-      <c r="A4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4">
+        <f>G2-G1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54">
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="51">
-      <c r="A5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54">
+      <c r="A5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="51">
-      <c r="A6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="F5" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54">
+      <c r="A6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51">
-      <c r="A7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="A7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="51">
-      <c r="A8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="F7" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54">
+      <c r="A8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="51">
-      <c r="A9" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54">
+      <c r="A9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="51">
-      <c r="A10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54">
+      <c r="A10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51">
-      <c r="A11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="54">
+      <c r="A11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="51">
-      <c r="A12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="54">
+      <c r="A12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51">
-      <c r="A13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="54">
+      <c r="A13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="51">
-      <c r="A14" s="10" t="s">
+      <c r="F13" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="54">
+      <c r="A14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="51">
-      <c r="A15" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54">
+      <c r="A15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="51">
-      <c r="A16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="F15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="54">
+      <c r="A16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="51">
-      <c r="A17" s="10" t="s">
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="54">
+      <c r="A17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="51">
-      <c r="A18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="F17" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="54">
+      <c r="A18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="51">
-      <c r="A19" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="F18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="54">
+      <c r="A19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="51">
-      <c r="A20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="F19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="54">
+      <c r="A20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="51">
-      <c r="A21" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="F20" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="54">
+      <c r="A21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="51">
-      <c r="A22" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="11">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="F21" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="54">
+      <c r="A22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="51">
-      <c r="A23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="11">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="F22" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="54">
+      <c r="A23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="51">
-      <c r="A24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="F23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="54">
+      <c r="A24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="51">
-      <c r="A25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="F24" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="54">
+      <c r="A25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="51">
-      <c r="A26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="51">
-      <c r="A27" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="51">
-      <c r="A28" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="F25" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.5">
+      <c r="A26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9">
         <v>5</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="51">
-      <c r="A29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="D26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="40.5">
+      <c r="A27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="9">
         <v>5</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51">
-      <c r="A30" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="D27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.5">
+      <c r="A28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="9">
         <v>5</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="4">
-        <f>SUM(C1:C30)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="38.25">
-      <c r="A31" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="D28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="40.5">
+      <c r="A29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="9">
         <v>5</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="4">
-        <f>SUM(C31:C81)</f>
-        <v>125</v>
-      </c>
-      <c r="H31">
-        <f>125-42</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="38.25">
-      <c r="A32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.5">
+      <c r="A30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="9">
         <v>5</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="38.25">
-      <c r="A33" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="D30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="40.5">
+      <c r="A31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9">
         <v>5</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="38.25">
-      <c r="A34" s="10" t="s">
+      <c r="D31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="40.5">
+      <c r="A32" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="11">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="38.25">
-      <c r="A35" s="10" t="s">
+      <c r="B32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="9">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="40.5">
+      <c r="A33" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="11">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="38.25">
-      <c r="A36" s="10" t="s">
+      <c r="B33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="9">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="40.5">
+      <c r="A34" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="11">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="38.25">
-      <c r="A37" s="10" t="s">
+      <c r="B34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="40.5">
+      <c r="A35" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="11">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="38.25">
-      <c r="A38" s="10" t="s">
+      <c r="B35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="40.5">
+      <c r="A36" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="11">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="38.25">
-      <c r="A39" s="10" t="s">
+      <c r="B36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="40.5">
+      <c r="A37" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="11">
-        <v>10</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="38.25">
-      <c r="A40" s="10" t="s">
+      <c r="B37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="40.5">
+      <c r="A38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="11">
-        <v>20</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="38.25">
-      <c r="A41" s="10" t="s">
+      <c r="B38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="9">
+        <v>3</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="40.5">
+      <c r="A39" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="9">
         <v>3</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="38.25">
-      <c r="A42" s="10" t="s">
+      <c r="D39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="40.5">
+      <c r="A40" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="B40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9">
         <v>3</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="38.25">
-      <c r="A43" s="10" t="s">
+      <c r="D40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="40.5">
+      <c r="A41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="11">
-        <v>10</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="38.25">
-      <c r="A44" s="10" t="s">
+      <c r="B41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="40.5">
+      <c r="A42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="9">
+        <v>3</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="40.5">
+      <c r="A43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="9">
+        <v>3</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="40.5">
+      <c r="A44" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="9">
+        <v>3</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="40.5">
+      <c r="A45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="9">
+        <v>3</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="40.5">
+      <c r="A46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="9">
+        <v>3</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="40.5">
+      <c r="A47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="9">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="40.5">
+      <c r="A48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="40.5">
+      <c r="A49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="40.5">
+      <c r="A50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="40.5">
+      <c r="A51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="40.5">
+      <c r="A52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="40.5">
+      <c r="A53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="40.5">
+      <c r="A54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="40.5">
+      <c r="A55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="40.5">
+      <c r="A56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="40.5">
+      <c r="A57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="40.5">
+      <c r="A58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="40.5">
+      <c r="A59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="40.5">
+      <c r="A60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="40.5">
+      <c r="A61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="40.5">
+      <c r="A62" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="40.5">
+      <c r="A63" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="40.5">
+      <c r="A64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="40.5">
+      <c r="A65" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="40.5">
+      <c r="A66" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="40.5">
+      <c r="A67" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="40.5">
+      <c r="A68" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="40.5">
+      <c r="A69" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="9">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="40.5">
+      <c r="A70" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="9">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="40.5">
+      <c r="A71" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="9">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="40.5">
+      <c r="A72" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="9">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="40.5">
+      <c r="A73" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="9">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="40.5">
+      <c r="A74" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="9">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="40.5">
+      <c r="A75" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="40.5">
+      <c r="A76" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="40.5">
+      <c r="A77" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="9">
+        <v>1</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="40.5">
+      <c r="A78" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="40.5">
+      <c r="A79" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="9">
+        <v>1</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="40.5">
+      <c r="A80" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="11">
-        <v>10</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="38.25">
-      <c r="A45" s="10" t="s">
+      <c r="B80" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="9">
+        <v>3</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="40.5">
+      <c r="A81" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="38.25">
-      <c r="A46" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="38.25">
-      <c r="A47" s="10" t="s">
+      <c r="B81" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="9">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="40.5">
+      <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="11">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="38.25">
-      <c r="A48" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="11">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="38.25">
-      <c r="A49" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="11">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="38.25">
-      <c r="A50" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="11">
-        <v>1</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="38.25">
-      <c r="A51" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="38.25">
-      <c r="A52" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="11">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="38.25">
-      <c r="A53" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="11">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="38.25">
-      <c r="A54" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="11">
-        <v>1</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="38.25">
-      <c r="A55" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="11">
-        <v>1</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="38.25">
-      <c r="A56" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="11">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="38.25">
-      <c r="A57" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="11">
-        <v>1</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="38.25">
-      <c r="A58" s="10" t="s">
+      <c r="B82" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="9">
+        <v>3</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="40.5">
+      <c r="A83" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="11">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="38.25">
-      <c r="A59" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="11">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="38.25">
-      <c r="A60" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="11">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="38.25">
-      <c r="A61" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="11">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="38.25">
-      <c r="A62" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="11">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="38.25">
-      <c r="A63" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="11">
-        <v>1</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="38.25">
-      <c r="A64" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="11">
-        <v>1</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="38.25">
-      <c r="A65" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="11">
-        <v>1</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="38.25">
-      <c r="A66" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="11">
-        <v>1</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="38.25">
-      <c r="A67" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="11">
-        <v>5</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="38.25">
-      <c r="A68" s="10" t="s">
+      <c r="B83" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="9">
+        <v>1</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="40.5">
+      <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="11">
-        <v>1</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="38.25">
-      <c r="A69" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="11">
-        <v>1</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="38.25">
-      <c r="A70" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="38.25">
-      <c r="A71" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="38.25">
-      <c r="A72" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="11">
-        <v>1</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="38.25">
-      <c r="A73" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="11">
-        <v>1</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="38.25">
-      <c r="A74" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="11">
-        <v>1</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="38.25">
-      <c r="A75" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="11">
-        <v>1</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="38.25">
-      <c r="A76" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="11">
-        <v>1</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="38.25">
-      <c r="A77" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="11">
-        <v>1</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="38.25">
-      <c r="A78" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="11">
-        <v>1</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="38.25">
-      <c r="A79" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="11">
-        <v>3</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="38.25">
-      <c r="A80" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="11">
-        <v>3</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="38.25">
-      <c r="A81" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="11">
-        <v>5</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>39</v>
+      <c r="B84" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="9">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="40.5">
+      <c r="A85" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="9">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -156,270 +156,6 @@
   <si>
     <t>Overall PnL</t>
   </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:23 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:22 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:21 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:20 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:19 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:18 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:17 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:16 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:15 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>6:02:14 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>5:33:41 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>5:33:32 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>5:32:04 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>5:31:55 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>5:23:40 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>5:23:14 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>5:21:19 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>5:21:14 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>4:56:19 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>4:54:03 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>4:52:38 PM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11/30/2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>4:34:02 PM</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -428,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,20 +179,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="3">
@@ -485,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,16 +216,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -786,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -801,7 +520,7 @@
     <col min="7" max="7" width="8.06640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -827,7 +546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>41962</v>
       </c>
@@ -841,26 +560,26 @@
         <v>983.67</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E12" si="0">D2-B2+F2+C2</f>
+        <f t="shared" ref="E2:E14" si="0">D2-B2+F2+C2</f>
         <v>880.67</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G12" si="1">E2-D2</f>
+        <f t="shared" ref="G2:G14" si="1">E2-D2</f>
         <v>-103</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H12" si="2">E2-$D$2</f>
+        <f t="shared" ref="H2:H14" si="2">E2-$D$2</f>
         <v>-103</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I12" si="3">E2/$D$2</f>
+        <f t="shared" ref="I2:I14" si="3">E2/$D$2</f>
         <v>0.89529008712271396</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>41963</v>
       </c>
@@ -871,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="4">E2</f>
+        <f t="shared" ref="D3:D14" si="4">E2</f>
         <v>880.67</v>
       </c>
       <c r="E3" s="7">
@@ -894,7 +613,7 @@
         <v>0.85767584657456264</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>41964</v>
       </c>
@@ -928,7 +647,7 @@
         <v>0.96929864690394141</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>41965</v>
       </c>
@@ -962,7 +681,7 @@
         <v>0.88309087397196229</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>41966</v>
       </c>
@@ -996,7 +715,7 @@
         <v>0.93737737249280761</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>41967</v>
       </c>
@@ -1030,7 +749,7 @@
         <v>0.89976313194465629</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>41968</v>
       </c>
@@ -1064,7 +783,7 @@
         <v>0.82738113391686241</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>41969</v>
       </c>
@@ -1098,7 +817,7 @@
         <v>0.859607388656765</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>41971</v>
       </c>
@@ -1132,7 +851,7 @@
         <v>0.77522949769739857</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>41972</v>
       </c>
@@ -1166,7 +885,7 @@
         <v>0.85981070887594424</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>41973</v>
       </c>
@@ -1198,6 +917,74 @@
       <c r="I12" s="7">
         <f t="shared" si="3"/>
         <v>0.92710970142425819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="4"/>
+        <v>911.97</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>836.97</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>-75</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>-146.69999999999993</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
+        <v>0.85086461923205958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>41975</v>
+      </c>
+      <c r="B14">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="4"/>
+        <v>836.97</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>730.97</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>-106</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>-252.69999999999993</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="3"/>
+        <v>0.74310490306708554</v>
       </c>
     </row>
   </sheetData>
@@ -1207,1691 +994,2107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="51">
-      <c r="A1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="8">
+        <v>41975.796180555553</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="10">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(C1:C25)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51">
-      <c r="A2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <f>SUM(C1:C28)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
+        <v>41975.796180555553</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(C26:C82)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="51">
-      <c r="A3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <f>SUM(C29:C104)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>41975.796180555553</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="4">
         <f>G2-G1</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51">
-      <c r="A4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>41975.796168981484</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="51">
-      <c r="A5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="F4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>41975.796168981484</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="51">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>41975.794259259259</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51">
-      <c r="A7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>41975.794259259259</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="51">
-      <c r="A8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>41975.794247685182</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="51">
-      <c r="A9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="F8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>41975.794247685182</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="51">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="F9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>41975.794247685182</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51">
-      <c r="A11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="F10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>41975.794236111113</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="51">
-      <c r="A12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <v>41975.794236111113</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51">
-      <c r="A13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
+        <v>41975.794224537036</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="51">
-      <c r="A14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="F13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="8">
+        <v>41975.794224537036</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="51">
-      <c r="A15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="F14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>41975.794212962966</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="51">
-      <c r="A16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="F15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
+        <v>41975.794212962966</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="51">
-      <c r="A17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="F16" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <v>41975.79420138889</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="51">
-      <c r="A18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="F17" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="8">
+        <v>41975.794189814813</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="51">
-      <c r="A19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="F18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="8">
+        <v>41975.70989583333</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="10">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="51">
-      <c r="A20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="8">
+        <v>41975.709675925929</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="51">
-      <c r="A21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="F20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="8">
+        <v>41975.709537037037</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51">
-      <c r="A22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="F21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="8">
+        <v>41975.709421296298</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="10">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="51">
-      <c r="A23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="F22" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="8">
+        <v>41975.70921296296</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="11">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="51">
-      <c r="A24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="F23" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="8">
+        <v>41975.709074074075</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="11">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="51">
-      <c r="A25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="F24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="8">
+        <v>41975.70894675926</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="10">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="38.25">
-      <c r="A26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="F25" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="8">
+        <v>41975.708807870367</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A27" s="8">
+        <v>41975.70857638889</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="10">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="8">
+        <v>41975.708356481482</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="8">
+        <v>41975.707766203705</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="10">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="8">
+        <v>41975.707766203705</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="10">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="8">
+        <v>41975.707766203705</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="8">
+        <v>41975.707766203705</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="8">
+        <v>41975.707766203705</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="10">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="10">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="10">
+        <v>10</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="10">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="10">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="10">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="10">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="10">
+        <v>5</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="10">
+        <v>5</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="10">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="10">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="10">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="10">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="10">
         <v>3</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="38.25">
-      <c r="A27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="11">
-        <v>5</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="38.25">
-      <c r="A28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="D46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="10">
         <v>3</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="38.25">
-      <c r="A29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="D47" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="10">
         <v>3</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="38.25">
-      <c r="A30" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="38.25">
-      <c r="A31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="38.25">
-      <c r="A32" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="38.25">
-      <c r="A33" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="38.25">
-      <c r="A34" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="11">
-        <v>10</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="38.25">
-      <c r="A35" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="11">
-        <v>5</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="38.25">
-      <c r="A36" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="11">
-        <v>5</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="38.25">
-      <c r="A37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="11">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="38.25">
-      <c r="A38" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="11">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="38.25">
-      <c r="A39" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="11">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="38.25">
-      <c r="A40" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="11">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="38.25">
-      <c r="A41" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="11">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="38.25">
-      <c r="A42" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="11">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="38.25">
-      <c r="A43" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="11">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="38.25">
-      <c r="A44" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="11">
-        <v>5</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="38.25">
-      <c r="A45" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="11">
-        <v>5</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="38.25">
-      <c r="A46" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="11">
-        <v>5</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="38.25">
-      <c r="A47" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="D48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="10">
         <v>3</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="38.25">
-      <c r="A48" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="D49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="10">
         <v>3</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="38.25">
-      <c r="A49" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="11">
+      <c r="D50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="10">
         <v>3</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="38.25">
-      <c r="A50" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="D51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="10">
         <v>3</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="38.25">
-      <c r="A51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="38.25">
-      <c r="A52" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="11">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="38.25">
-      <c r="A53" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="11">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="38.25">
-      <c r="A54" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="11">
-        <v>1</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="38.25">
-      <c r="A55" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="11">
-        <v>1</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="38.25">
-      <c r="A56" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="11">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="38.25">
-      <c r="A57" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="11">
-        <v>1</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="38.25">
-      <c r="A58" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="11">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="38.25">
-      <c r="A59" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="11">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="38.25">
-      <c r="A60" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="11">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="38.25">
-      <c r="A61" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="11">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="38.25">
-      <c r="A62" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="11">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="38.25">
-      <c r="A63" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="11">
-        <v>1</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="38.25">
-      <c r="A64" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="11">
-        <v>1</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="38.25">
-      <c r="A65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="11">
-        <v>1</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="38.25">
-      <c r="A66" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="11">
-        <v>1</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="38.25">
-      <c r="A67" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="11">
-        <v>1</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="38.25">
-      <c r="A68" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="11">
-        <v>1</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="38.25">
-      <c r="A69" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="11">
-        <v>1</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="38.25">
-      <c r="A70" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="38.25">
-      <c r="A71" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="38.25">
-      <c r="A72" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="11">
-        <v>1</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="38.25">
-      <c r="A73" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="11">
-        <v>1</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="38.25">
-      <c r="A74" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="11">
-        <v>1</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="38.25">
-      <c r="A75" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="11">
-        <v>1</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="38.25">
-      <c r="A76" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="11">
-        <v>1</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="38.25">
-      <c r="A77" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="11">
-        <v>1</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="38.25">
-      <c r="A78" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="11">
-        <v>1</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="38.25">
-      <c r="A79" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="11">
-        <v>1</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="38.25">
-      <c r="A80" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80" s="11">
-        <v>1</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="38.25">
-      <c r="A81" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81" s="11">
-        <v>1</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="38.25">
-      <c r="A82" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="11">
-        <v>1</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
+      <c r="D52" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="10">
+        <v>3</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="10">
+        <v>3</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="10">
+        <v>3</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="10">
+        <v>3</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="10">
+        <v>3</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="10">
+        <v>3</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="10">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="10">
+        <v>1</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="10">
+        <v>1</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="10">
+        <v>1</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="10">
+        <v>1</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="10">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="10">
+        <v>1</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="10">
+        <v>1</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="10">
+        <v>1</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A85" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="10">
+        <v>1</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A86" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="10">
+        <v>1</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A87" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="10">
+        <v>1</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A88" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="10">
+        <v>1</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="10">
+        <v>1</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A90" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="10">
+        <v>1</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A91" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="10">
+        <v>1</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="10">
+        <v>1</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A93" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="10">
+        <v>1</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A94" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="10">
+        <v>1</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A95" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="10">
+        <v>1</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A96" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="10">
+        <v>1</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A97" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="10">
+        <v>1</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A98" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="10">
+        <v>1</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A99" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="10">
+        <v>1</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A100" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="10">
+        <v>1</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A101" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="10">
+        <v>1</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A102" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="10">
+        <v>1</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A103" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="10">
+        <v>1</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A104" s="8">
+        <v>41975.707268518519</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="10">
+        <v>1</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2906,13 +3109,13 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="50.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2950,7 +3153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2985,7 +3188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3020,7 +3223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3055,7 +3258,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3090,7 +3293,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3125,7 +3328,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3160,7 +3363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3195,7 +3398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3230,7 +3433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3265,7 +3468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3300,7 +3503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3335,7 +3538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3370,7 +3573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3405,7 +3608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3440,7 +3643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3475,7 +3678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3510,7 +3713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3545,7 +3748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3580,7 +3783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3615,7 +3818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3650,7 +3853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3685,7 +3888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3720,7 +3923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3755,7 +3958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3794,7 +3997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3830,7 +4033,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -3866,7 +4069,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3901,7 +4104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -3936,7 +4139,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +4174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -4006,7 +4209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -4041,7 +4244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -4076,7 +4279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -4111,7 +4314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -4146,7 +4349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -4181,7 +4384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -4216,7 +4419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4251,7 +4454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -4286,7 +4489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -4321,7 +4524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4356,7 +4559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4391,7 +4594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4426,7 +4629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -4461,7 +4664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -4496,7 +4699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4531,7 +4734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -4566,7 +4769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -4601,7 +4804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4636,7 +4839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -4671,7 +4874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -4706,7 +4909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4741,7 +4944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -4776,7 +4979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -4811,7 +5014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4846,7 +5049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4881,7 +5084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -4916,7 +5119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4951,7 +5154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4986,7 +5189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -5021,7 +5224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -5056,7 +5259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -5091,7 +5294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -5126,7 +5329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -5161,7 +5364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -5196,7 +5399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -5231,7 +5434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -5266,7 +5469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -5301,7 +5504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -5336,7 +5539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -5371,7 +5574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -5406,7 +5609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -5441,7 +5644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5476,7 +5679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -5511,7 +5714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -5546,7 +5749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -5581,7 +5784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -5616,7 +5819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -5651,7 +5854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -5686,7 +5889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -5721,7 +5924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5756,7 +5959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5791,7 +5994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5826,7 +6029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5861,7 +6064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5896,7 +6099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5935,252 +6138,252 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C87" s="3"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C88" s="3"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C89" s="3"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C90" s="3"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C91" s="3"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C92" s="3"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C93" s="3"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C94" s="3"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C95" s="3"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C96" s="3"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="3:10">
+    <row r="97" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C97" s="3"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="3:10">
+    <row r="98" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C98" s="3"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="3:10">
+    <row r="99" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C99" s="3"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="3:10">
+    <row r="100" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C100" s="3"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="3:10">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C101" s="3"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="3:10">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C102" s="3"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="3:10">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C103" s="3"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="3:10">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C104" s="3"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="3:10">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C105" s="3"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="3:10">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C106" s="3"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="3:10">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C107" s="3"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="3:10">
+    <row r="108" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C108" s="3"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="3:10">
+    <row r="109" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C109" s="3"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="3:10">
+    <row r="110" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C110" s="3"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="3:10">
+    <row r="111" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C111" s="3"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="3:10">
+    <row r="112" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C112" s="3"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="3:10">
+    <row r="113" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C113" s="3"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="3:10">
+    <row r="114" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C114" s="3"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="3:10">
+    <row r="115" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C115" s="3"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="3:10">
+    <row r="116" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C116" s="3"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="3:10">
+    <row r="117" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C117" s="3"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="3:10">
+    <row r="118" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C118" s="3"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="3:10">
+    <row r="119" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C119" s="3"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="3:10">
+    <row r="120" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C120" s="3"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="3:10">
+    <row r="121" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C121" s="3"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="3:10">
+    <row r="122" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C122" s="3"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>

--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -560,22 +560,22 @@
         <v>983.67</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E14" si="0">D2-B2+F2+C2</f>
+        <f t="shared" ref="E2:E20" si="0">D2-B2+F2+C2</f>
         <v>880.67</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G14" si="1">E2-D2</f>
+        <f t="shared" ref="G2:G20" si="1">E2-D2</f>
         <v>-103</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H14" si="2">E2-$D$2</f>
+        <f t="shared" ref="H2:H20" si="2">E2-$D$2</f>
         <v>-103</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I14" si="3">E2/$D$2</f>
+        <f t="shared" ref="I2:I20" si="3">E2/$D$2</f>
         <v>0.89529008712271396</v>
       </c>
     </row>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="4">E2</f>
+        <f t="shared" ref="D3:D20" si="4">E2</f>
         <v>880.67</v>
       </c>
       <c r="E3" s="7">
@@ -985,6 +985,165 @@
       <c r="I14" s="7">
         <f t="shared" si="3"/>
         <v>0.74310490306708554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>41976</v>
+      </c>
+      <c r="B15">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="4"/>
+        <v>730.97</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>613.97</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>-117</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="2"/>
+        <v>-369.69999999999993</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.62416257484725579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>41977</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>5.4</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="4"/>
+        <v>613.97</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>558.37</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>-55.600000000000023</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="2"/>
+        <v>-425.29999999999995</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="3"/>
+        <v>0.56763955391543919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>41978</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="4"/>
+        <v>558.37</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>558.37</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="2"/>
+        <v>-425.29999999999995</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="3"/>
+        <v>0.56763955391543919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D18" s="7">
+        <f t="shared" si="4"/>
+        <v>558.37</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>558.37</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="2"/>
+        <v>-425.29999999999995</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="3"/>
+        <v>0.56763955391543919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D19" s="7">
+        <f t="shared" si="4"/>
+        <v>558.37</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>558.37</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="2"/>
+        <v>-425.29999999999995</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="3"/>
+        <v>0.56763955391543919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D20" s="7">
+        <f t="shared" si="4"/>
+        <v>558.37</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>558.37</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="2"/>
+        <v>-425.29999999999995</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="3"/>
+        <v>0.56763955391543919</v>
       </c>
     </row>
   </sheetData>

--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -131,24 +131,6 @@
   </si>
   <si>
     <t>Daily Total</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Refund for Cancelled Contest</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Entry Fee</t>
-  </si>
-  <si>
-    <t>Contest Entry Fee</t>
   </si>
   <si>
     <t>Daily PnL</t>
@@ -505,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -540,10 +522,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -560,22 +542,22 @@
         <v>983.67</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E20" si="0">D2-B2+F2+C2</f>
+        <f t="shared" ref="E2:E23" si="0">D2-B2+F2+C2</f>
         <v>880.67</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G20" si="1">E2-D2</f>
+        <f t="shared" ref="G2:G23" si="1">E2-D2</f>
         <v>-103</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H20" si="2">E2-$D$2</f>
+        <f t="shared" ref="H2:H23" si="2">E2-$D$2</f>
         <v>-103</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I20" si="3">E2/$D$2</f>
+        <f t="shared" ref="I2:I23" si="3">E2/$D$2</f>
         <v>0.89529008712271396</v>
       </c>
     </row>
@@ -590,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D20" si="4">E2</f>
+        <f t="shared" ref="D3:D23" si="4">E2</f>
         <v>880.67</v>
       </c>
       <c r="E3" s="7">
@@ -877,7 +859,7 @@
         <v>83.199999999999932</v>
       </c>
       <c r="H11" s="7">
-        <f>E11-$D$2</f>
+        <f t="shared" si="2"/>
         <v>-137.89999999999998</v>
       </c>
       <c r="I11" s="7">
@@ -1059,91 +1041,218 @@
       <c r="A17" s="1">
         <v>41978</v>
       </c>
+      <c r="B17">
+        <v>163</v>
+      </c>
+      <c r="C17">
+        <v>2.7</v>
+      </c>
       <c r="D17" s="7">
         <f t="shared" si="4"/>
         <v>558.37</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>558.37</v>
+        <v>404.07</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-154.30000000000001</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>-425.29999999999995</v>
+        <v>-579.59999999999991</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="3"/>
-        <v>0.56763955391543919</v>
+        <v>0.4107780048186892</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>41979</v>
+      </c>
+      <c r="B18">
+        <f>89+14*3+9*5</f>
+        <v>176</v>
+      </c>
+      <c r="C18">
+        <v>291.60000000000002</v>
+      </c>
       <c r="D18" s="7">
         <f t="shared" si="4"/>
-        <v>558.37</v>
+        <v>404.07</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>558.37</v>
+        <v>526.67000000000007</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>122.60000000000008</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="2"/>
-        <v>-425.29999999999995</v>
+        <v>-456.99999999999989</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="3"/>
-        <v>0.56763955391543919</v>
+        <v>0.53541329917553659</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B19">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="4"/>
-        <v>558.37</v>
+        <v>526.67000000000007</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>558.37</v>
+        <v>421.57000000000005</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-105.10000000000002</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="2"/>
-        <v>-425.29999999999995</v>
+        <v>-562.09999999999991</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="3"/>
-        <v>0.56763955391543919</v>
+        <v>0.42856852399686896</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>41981</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20">
+        <v>153.9</v>
+      </c>
       <c r="D20" s="7">
         <f t="shared" si="4"/>
-        <v>558.37</v>
+        <v>421.57000000000005</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>558.37</v>
+        <v>475.47</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53.899999999999977</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="2"/>
-        <v>-425.29999999999995</v>
+        <v>-508.19999999999993</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="3"/>
-        <v>0.56763955391543919</v>
+        <v>0.48336332306566232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B21">
+        <v>113</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="4"/>
+        <v>475.47</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>366.47</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>-109</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="2"/>
+        <v>-617.19999999999993</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="3"/>
+        <v>0.37255380361300033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>41983</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="4"/>
+        <v>366.47</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>366.47</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="2"/>
+        <v>-617.19999999999993</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.37255380361300033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>41984</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="4"/>
+        <v>366.47</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>366.47</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="2"/>
+        <v>-617.19999999999993</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.37255380361300033</v>
       </c>
     </row>
   </sheetData>
@@ -1156,2104 +1265,847 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G4" sqref="A1:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="8">
-        <v>41975.796180555553</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(C1:C28)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
-        <v>41975.796180555553</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM(C29:C104)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
-        <v>41975.796180555553</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="4">
-        <f>G2-G1</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
-        <v>41975.796168981484</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
-        <v>41975.796168981484</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
-        <v>41975.794259259259</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="8">
-        <v>41975.794259259259</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="8">
-        <v>41975.794247685182</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="8">
-        <v>41975.794247685182</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="8">
-        <v>41975.794247685182</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
-        <v>41975.794236111113</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
-        <v>41975.794236111113</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="8">
-        <v>41975.794224537036</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="8">
-        <v>41975.794224537036</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="8">
-        <v>41975.794212962966</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="8">
-        <v>41975.794212962966</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="8">
-        <v>41975.79420138889</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="8">
-        <v>41975.794189814813</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="8">
-        <v>41975.70989583333</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="10">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="8">
-        <v>41975.709675925929</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="10">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="8">
-        <v>41975.709537037037</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="10">
-        <v>5</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="8">
-        <v>41975.709421296298</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="10">
-        <v>5</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="8">
-        <v>41975.70921296296</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="10">
-        <v>5</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="8">
-        <v>41975.709074074075</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="10">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="8">
-        <v>41975.70894675926</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="10">
-        <v>5</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="8">
-        <v>41975.708807870367</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="10">
-        <v>5</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="8">
-        <v>41975.70857638889</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="10">
-        <v>10</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="8">
-        <v>41975.708356481482</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="10">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="8">
-        <v>41975.707766203705</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="10">
-        <v>10</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="8">
-        <v>41975.707766203705</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="10">
-        <v>5</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>38</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="8">
-        <v>41975.707766203705</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="10">
-        <v>5</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>38</v>
-      </c>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="8">
-        <v>41975.707766203705</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="10">
-        <v>5</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="8">
-        <v>41975.707766203705</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="10">
-        <v>5</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="10">
-        <v>10</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="10">
-        <v>10</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="10">
-        <v>10</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="10">
-        <v>5</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="10">
-        <v>5</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="10">
-        <v>5</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="10">
-        <v>5</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="10">
-        <v>5</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="10">
-        <v>5</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="10">
-        <v>5</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="10">
-        <v>5</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="10">
-        <v>5</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="10">
-        <v>3</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="10">
-        <v>3</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="10">
-        <v>3</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="10">
-        <v>3</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="10">
-        <v>3</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="10">
-        <v>3</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="10">
-        <v>3</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="10">
-        <v>3</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="10">
-        <v>3</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="10">
-        <v>3</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="10">
-        <v>3</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="10">
-        <v>3</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="10">
-        <v>3</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="10">
-        <v>3</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="10">
-        <v>1</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="10">
-        <v>1</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="10">
-        <v>1</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="10">
-        <v>1</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="10">
-        <v>1</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="10">
-        <v>1</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="10">
-        <v>1</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="10">
-        <v>1</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="10">
-        <v>1</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A70" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="10">
-        <v>1</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="10">
-        <v>1</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="10">
-        <v>1</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A73" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="10">
-        <v>1</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="10">
-        <v>1</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="10">
-        <v>1</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="10">
-        <v>1</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="10">
-        <v>1</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A78" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="10">
-        <v>1</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="10">
-        <v>1</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A80" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80" s="10">
-        <v>1</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A81" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81" s="10">
-        <v>1</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A82" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="10">
-        <v>1</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" s="10">
-        <v>1</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="10">
-        <v>1</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" s="10">
-        <v>1</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A86" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="10">
-        <v>1</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="10">
-        <v>1</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A88" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="10">
-        <v>1</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A89" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" s="10">
-        <v>1</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A90" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="10">
-        <v>1</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="10">
-        <v>1</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="10">
-        <v>1</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="10">
-        <v>1</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A94" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="10">
-        <v>1</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C95" s="10">
-        <v>1</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A96" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="10">
-        <v>1</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" s="10">
-        <v>1</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A98" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C98" s="10">
-        <v>1</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A99" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C99" s="10">
-        <v>1</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="10">
-        <v>1</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C101" s="10">
-        <v>1</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C102" s="10">
-        <v>1</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A103" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C103" s="10">
-        <v>1</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="8">
-        <v>41975.707268518519</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C104" s="10">
-        <v>1</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>38</v>
-      </c>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="8"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="8"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="8"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RECORDS/summary.xlsx
+++ b/RECORDS/summary.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1181,6 +1181,9 @@
       <c r="B21">
         <v>113</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21" s="7">
         <f t="shared" si="4"/>
         <v>475.47</v>
@@ -1209,38 +1212,48 @@
       <c r="A22" s="1">
         <v>41983</v>
       </c>
+      <c r="B22">
+        <v>139</v>
+      </c>
+      <c r="C22">
+        <f>91.8</f>
+        <v>91.8</v>
+      </c>
       <c r="D22" s="7">
         <f t="shared" si="4"/>
         <v>366.47</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>366.47</v>
+        <v>325.27000000000004</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-41.199999999999989</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="2"/>
-        <v>-617.19999999999993</v>
+        <v>-658.39999999999986</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="3"/>
-        <v>0.37255380361300033</v>
+        <v>0.33066983846208592</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>41984</v>
+        <v>41985</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="4"/>
-        <v>366.47</v>
+        <v>325.27000000000004</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>366.47</v>
+        <v>325.27000000000004</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="1"/>
@@ -1248,11 +1261,11 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="2"/>
-        <v>-617.19999999999993</v>
+        <v>-658.39999999999986</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="3"/>
-        <v>0.37255380361300033</v>
+        <v>0.33066983846208592</v>
       </c>
     </row>
   </sheetData>
